--- a/media/templates/planing.xlsx
+++ b/media/templates/planing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Cosider_Project_GC\media\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Cosider_Project_GC\media\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A530DD-AAA9-46C9-9CEA-36F238406610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8747D898-BBF3-49CF-A329-3586972C5879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,16 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Mois</t>
-  </si>
-  <si>
-    <t>Code Produit</t>
-  </si>
-  <si>
-    <t>Libellé</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Contrat N°</t>
   </si>
@@ -110,21 +101,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -188,58 +164,73 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="1">
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -257,6 +248,235 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="474745" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="ZoneTexte 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9BEE76-3080-4FE0-9E36-1E0A7C0BA91B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="990600"/>
+          <a:ext cx="474745" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Mois</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="853567" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A469D303-B68F-4267-8F08-3F7B30B4D0A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="1190625"/>
+          <a:ext cx="853567" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Réf.Produit</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="565989" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DA01C6-4513-45DF-A22F-EFDA299B173C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="1228725"/>
+          <a:ext cx="565989" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" b="1"/>
+            <a:t>Libellé</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Connecteur droit 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC44608A-2A6F-4A3D-A14F-AF857B479CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1990725" y="1133475"/>
+          <a:ext cx="0" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,58 +742,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C5" s="3"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="2:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -582,5 +798,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/media/templates/planing.xlsx
+++ b/media/templates/planing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Cosider_Project_GC\media\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8747D898-BBF3-49CF-A329-3586972C5879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82003870-4EB2-492E-85CE-46C29A8BEB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
+    <border diagonalUp="1" diagonalDown="1">
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -189,7 +189,7 @@
         <color indexed="64"/>
       </diagonal>
     </border>
-    <border diagonalDown="1">
+    <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -208,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -223,10 +223,17 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -248,235 +255,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2133600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="474745" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="ZoneTexte 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9BEE76-3080-4FE0-9E36-1E0A7C0BA91B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4124325" y="990600"/>
-          <a:ext cx="474745" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="1"/>
-            <a:t>Mois</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="853567" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="ZoneTexte 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A469D303-B68F-4267-8F08-3F7B30B4D0A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="590550" y="1190625"/>
-          <a:ext cx="853567" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="1"/>
-            <a:t>Réf.Produit</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>276225</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="565989" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="ZoneTexte 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DA01C6-4513-45DF-A22F-EFDA299B173C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2724150" y="1228725"/>
-          <a:ext cx="565989" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="fr-FR" sz="1100" b="1"/>
-            <a:t>Libellé</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Connecteur droit 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC44608A-2A6F-4A3D-A14F-AF857B479CEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1990725" y="1133475"/>
-          <a:ext cx="0" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,14 +523,14 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="20.7109375" style="9" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -785,10 +563,10 @@
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="11"/>
     </row>
   </sheetData>
@@ -798,6 +576,5 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>